--- a/data/pca/factorExposure/factorExposure_2009-11-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-11-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.007271965844987665</v>
+        <v>0.01638745208001885</v>
       </c>
       <c r="C2">
-        <v>-6.302980809128442e-05</v>
+        <v>0.0008610698632543997</v>
       </c>
       <c r="D2">
-        <v>-0.008378713680535676</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.008831645057627339</v>
+      </c>
+      <c r="E2">
+        <v>-0.001177163855718236</v>
+      </c>
+      <c r="F2">
+        <v>-0.01197588171429484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1069657422391917</v>
+        <v>0.09380379961867305</v>
       </c>
       <c r="C4">
-        <v>0.02388172174257913</v>
+        <v>0.01483006988689164</v>
       </c>
       <c r="D4">
-        <v>-0.04975826095498108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08483772208767511</v>
+      </c>
+      <c r="E4">
+        <v>-0.02833335974664179</v>
+      </c>
+      <c r="F4">
+        <v>0.03122521376217853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1390135500034047</v>
+        <v>0.1583098217409936</v>
       </c>
       <c r="C6">
-        <v>0.02752972739875543</v>
+        <v>0.02576007464575992</v>
       </c>
       <c r="D6">
-        <v>0.0391712204102414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02113381537308312</v>
+      </c>
+      <c r="E6">
+        <v>-0.01185309506390728</v>
+      </c>
+      <c r="F6">
+        <v>0.04523210707061687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07461265774470327</v>
+        <v>0.06329190930078703</v>
       </c>
       <c r="C7">
-        <v>0.02956011083407696</v>
+        <v>-0.001607220903389002</v>
       </c>
       <c r="D7">
-        <v>-0.02487046635424049</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05232294436187784</v>
+      </c>
+      <c r="E7">
+        <v>-0.009005575166291717</v>
+      </c>
+      <c r="F7">
+        <v>0.04741521472934535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0562940504082926</v>
+        <v>0.05701902772090624</v>
       </c>
       <c r="C8">
-        <v>0.03328617668072407</v>
+        <v>-0.01354414697859368</v>
       </c>
       <c r="D8">
-        <v>0.006158233141910006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03323477908480305</v>
+      </c>
+      <c r="E8">
+        <v>-0.01767699079368961</v>
+      </c>
+      <c r="F8">
+        <v>-0.02765430687245349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08991376376645085</v>
+        <v>0.07116801407663191</v>
       </c>
       <c r="C9">
-        <v>0.01965249320448018</v>
+        <v>0.01052106718907058</v>
       </c>
       <c r="D9">
-        <v>-0.04576022964209919</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08649473927621709</v>
+      </c>
+      <c r="E9">
+        <v>-0.02239361040695417</v>
+      </c>
+      <c r="F9">
+        <v>0.04689063336858193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.04547422282647309</v>
+        <v>0.09382844137799852</v>
       </c>
       <c r="C10">
-        <v>0.007390490843964547</v>
+        <v>0.02102090187562145</v>
       </c>
       <c r="D10">
-        <v>0.1373417711355963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1680936522955916</v>
+      </c>
+      <c r="E10">
+        <v>0.03458418949148655</v>
+      </c>
+      <c r="F10">
+        <v>-0.05365846782721972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.1013776562912893</v>
+        <v>0.08777572824431525</v>
       </c>
       <c r="C11">
-        <v>0.02352057054384431</v>
+        <v>0.01043448179586715</v>
       </c>
       <c r="D11">
-        <v>-0.07705269789565793</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1168776522142071</v>
+      </c>
+      <c r="E11">
+        <v>-0.04598533449994963</v>
+      </c>
+      <c r="F11">
+        <v>0.0209526649172278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1071083575710578</v>
+        <v>0.09179047241842983</v>
       </c>
       <c r="C12">
-        <v>0.02759934633368853</v>
+        <v>0.007523976795991511</v>
       </c>
       <c r="D12">
-        <v>-0.07969648564022644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1325009981885658</v>
+      </c>
+      <c r="E12">
+        <v>-0.04719891538028291</v>
+      </c>
+      <c r="F12">
+        <v>0.02732275414025369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04392811689081149</v>
+        <v>0.04211905271702898</v>
       </c>
       <c r="C13">
-        <v>0.01113397864072022</v>
+        <v>0.002889823019813525</v>
       </c>
       <c r="D13">
-        <v>-0.02867492811884294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05277775471173824</v>
+      </c>
+      <c r="E13">
+        <v>0.007698954426112375</v>
+      </c>
+      <c r="F13">
+        <v>0.002721393134412071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02708227537993515</v>
+        <v>0.02335663307443868</v>
       </c>
       <c r="C14">
-        <v>-0.00471219747980765</v>
+        <v>0.01365353209780802</v>
       </c>
       <c r="D14">
-        <v>-0.01640637086344824</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03236457997371994</v>
+      </c>
+      <c r="E14">
+        <v>-0.01632347982996269</v>
+      </c>
+      <c r="F14">
+        <v>0.01366021191848278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04020056039093149</v>
+        <v>0.03321476971435638</v>
       </c>
       <c r="C15">
-        <v>0.007804245039502066</v>
+        <v>0.004763493134898623</v>
       </c>
       <c r="D15">
-        <v>-0.01033613155548211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04503371199456987</v>
+      </c>
+      <c r="E15">
+        <v>-0.005676007686759113</v>
+      </c>
+      <c r="F15">
+        <v>0.02355747481215947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.09049468966618728</v>
+        <v>0.07424128242155358</v>
       </c>
       <c r="C16">
-        <v>0.02936437908064059</v>
+        <v>0.001204556813562223</v>
       </c>
       <c r="D16">
-        <v>-0.07271352710132989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1267483333395907</v>
+      </c>
+      <c r="E16">
+        <v>-0.06174335184441367</v>
+      </c>
+      <c r="F16">
+        <v>0.02462670575849514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03384125444181819</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003388346132114811</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.0174460592353489</v>
+      </c>
+      <c r="E18">
+        <v>0.007805526957859436</v>
+      </c>
+      <c r="F18">
+        <v>-0.007489746020700265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06522657410755299</v>
+        <v>0.06131967592968146</v>
       </c>
       <c r="C20">
-        <v>0.01966377941664861</v>
+        <v>-6.976705644394307e-06</v>
       </c>
       <c r="D20">
-        <v>-0.02457977510011878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07789390868020289</v>
+      </c>
+      <c r="E20">
+        <v>-0.05510070172659434</v>
+      </c>
+      <c r="F20">
+        <v>0.02393431955250097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04085948354059655</v>
+        <v>0.04106613291737804</v>
       </c>
       <c r="C21">
-        <v>0.004937242784605653</v>
+        <v>0.006643016926900477</v>
       </c>
       <c r="D21">
-        <v>-0.006009363991990874</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03718911421810803</v>
+      </c>
+      <c r="E21">
+        <v>0.00549081039514035</v>
+      </c>
+      <c r="F21">
+        <v>-0.02487050924037228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02280864100245225</v>
+        <v>0.04338733715770799</v>
       </c>
       <c r="C22">
-        <v>0.006913637647437683</v>
+        <v>0.0008854919090005938</v>
       </c>
       <c r="D22">
-        <v>0.02229911273190083</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.005869284747654724</v>
+      </c>
+      <c r="E22">
+        <v>-0.03305203872851087</v>
+      </c>
+      <c r="F22">
+        <v>-0.04077223730802081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02273756988801773</v>
+        <v>0.04335485980741788</v>
       </c>
       <c r="C23">
-        <v>0.006896479750660828</v>
+        <v>0.0008746753834918987</v>
       </c>
       <c r="D23">
-        <v>0.0222789714448556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.005892284877359369</v>
+      </c>
+      <c r="E23">
+        <v>-0.03325718109759148</v>
+      </c>
+      <c r="F23">
+        <v>-0.04078329713564847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.09594376578676717</v>
+        <v>0.08016152211757716</v>
       </c>
       <c r="C24">
-        <v>0.03077233017967903</v>
+        <v>0.001702396970631881</v>
       </c>
       <c r="D24">
-        <v>-0.08047945921042304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1216471343595867</v>
+      </c>
+      <c r="E24">
+        <v>-0.04905674825022446</v>
+      </c>
+      <c r="F24">
+        <v>0.02566915378451738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09931187501356571</v>
+        <v>0.08472895130236298</v>
       </c>
       <c r="C25">
-        <v>0.02907363546309325</v>
+        <v>0.004223645118230886</v>
       </c>
       <c r="D25">
-        <v>-0.08283887922334902</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1093655851449393</v>
+      </c>
+      <c r="E25">
+        <v>-0.0319859101810586</v>
+      </c>
+      <c r="F25">
+        <v>0.02628083985871688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05493659678190223</v>
+        <v>0.05752705770860558</v>
       </c>
       <c r="C26">
-        <v>0.002425515614993089</v>
+        <v>0.01399177449897591</v>
       </c>
       <c r="D26">
-        <v>-0.004924467899397557</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04136793845008486</v>
+      </c>
+      <c r="E26">
+        <v>-0.02709733986627709</v>
+      </c>
+      <c r="F26">
+        <v>-0.007067844849928682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08834410920884039</v>
+        <v>0.140798868835856</v>
       </c>
       <c r="C28">
-        <v>0.03000477192845874</v>
+        <v>0.02111783007862128</v>
       </c>
       <c r="D28">
-        <v>0.2534922469466528</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2619779715298463</v>
+      </c>
+      <c r="E28">
+        <v>0.06760191250640955</v>
+      </c>
+      <c r="F28">
+        <v>0.00938982487535979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0262017209459611</v>
+        <v>0.02788736563834592</v>
       </c>
       <c r="C29">
-        <v>-0.0008501772767746565</v>
+        <v>0.008402332072015429</v>
       </c>
       <c r="D29">
-        <v>-0.007120902649885557</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03088046544225087</v>
+      </c>
+      <c r="E29">
+        <v>-0.01046923236400772</v>
+      </c>
+      <c r="F29">
+        <v>-0.01223464873299924</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1002677012104833</v>
+        <v>0.06067465622208132</v>
       </c>
       <c r="C30">
-        <v>0.03366060160046506</v>
+        <v>0.003263682747253806</v>
       </c>
       <c r="D30">
-        <v>-0.04311497657516984</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08820484466981222</v>
+      </c>
+      <c r="E30">
+        <v>-0.01842910633447279</v>
+      </c>
+      <c r="F30">
+        <v>0.0807579534524587</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03697002008172116</v>
+        <v>0.05016665608897278</v>
       </c>
       <c r="C31">
-        <v>-0.003518102424016766</v>
+        <v>0.0151322785833992</v>
       </c>
       <c r="D31">
-        <v>-0.01534706622622283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02483088013724329</v>
+      </c>
+      <c r="E31">
+        <v>-0.02750326988717252</v>
+      </c>
+      <c r="F31">
+        <v>-0.002032584312338581</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.0470374655108922</v>
+        <v>0.05037341126334997</v>
       </c>
       <c r="C32">
-        <v>0.01745199505398468</v>
+        <v>-0.001749357100920159</v>
       </c>
       <c r="D32">
-        <v>-0.007091448845579054</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03649261134469074</v>
+      </c>
+      <c r="E32">
+        <v>-0.03160523135569367</v>
+      </c>
+      <c r="F32">
+        <v>0.003590172472104766</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.105641360185695</v>
+        <v>0.09003610544700032</v>
       </c>
       <c r="C33">
-        <v>0.0301752761237264</v>
+        <v>0.007339439846477076</v>
       </c>
       <c r="D33">
-        <v>-0.05216494845958601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.09968927185443632</v>
+      </c>
+      <c r="E33">
+        <v>-0.04383862911802751</v>
+      </c>
+      <c r="F33">
+        <v>0.03557699443933556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.09196593932000377</v>
+        <v>0.06773206110035636</v>
       </c>
       <c r="C34">
-        <v>0.02194740243617258</v>
+        <v>0.01014982539048119</v>
       </c>
       <c r="D34">
-        <v>-0.07430715503160339</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1083019579656601</v>
+      </c>
+      <c r="E34">
+        <v>-0.03483601539139674</v>
+      </c>
+      <c r="F34">
+        <v>0.03241398175458714</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02083688749426742</v>
+        <v>0.02458010432083545</v>
       </c>
       <c r="C35">
-        <v>0.005985467294754568</v>
+        <v>0.0023830008242756</v>
       </c>
       <c r="D35">
-        <v>-0.003692908514251796</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01132477986352858</v>
+      </c>
+      <c r="E35">
+        <v>-0.011604200380937</v>
+      </c>
+      <c r="F35">
+        <v>0.0003583576831046932</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01707848007337185</v>
+        <v>0.02773369534501425</v>
       </c>
       <c r="C36">
-        <v>-0.003890431057065487</v>
+        <v>0.006891794071234325</v>
       </c>
       <c r="D36">
-        <v>-0.02820914484890913</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03941841948815242</v>
+      </c>
+      <c r="E36">
+        <v>-0.01614335193029707</v>
+      </c>
+      <c r="F36">
+        <v>0.01467668103452714</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0001274067725270611</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0001486066351787828</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.0001123477752243182</v>
+      </c>
+      <c r="E37">
+        <v>0.0003674402212487883</v>
+      </c>
+      <c r="F37">
+        <v>0.0009031594918454249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.001818977612508381</v>
+        <v>0.001020628299009204</v>
       </c>
       <c r="C38">
-        <v>0.0006486414004568906</v>
+        <v>0.000159413625980389</v>
       </c>
       <c r="D38">
-        <v>0.001719194643856379</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.000478958079672887</v>
+      </c>
+      <c r="E38">
+        <v>-0.0001010897592419464</v>
+      </c>
+      <c r="F38">
+        <v>-0.0009645175069447823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1337992243282349</v>
+        <v>0.1051842456999736</v>
       </c>
       <c r="C39">
-        <v>0.0309051812650191</v>
+        <v>0.01566711391454795</v>
       </c>
       <c r="D39">
-        <v>-0.1181278022944989</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1533730143610288</v>
+      </c>
+      <c r="E39">
+        <v>-0.05797905651465746</v>
+      </c>
+      <c r="F39">
+        <v>0.02960315945793962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02899731061201555</v>
+        <v>0.04250192490141046</v>
       </c>
       <c r="C40">
-        <v>0.001647629621026836</v>
+        <v>0.006855972741784628</v>
       </c>
       <c r="D40">
-        <v>0.01205717616211333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03161071148552897</v>
+      </c>
+      <c r="E40">
+        <v>-0.003173719586211577</v>
+      </c>
+      <c r="F40">
+        <v>-0.01608151165038879</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02143211748839613</v>
+        <v>0.02781720190734211</v>
       </c>
       <c r="C41">
-        <v>1.903725778165012e-06</v>
+        <v>0.006816689249625672</v>
       </c>
       <c r="D41">
-        <v>0.005516882201815724</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01014532879611767</v>
+      </c>
+      <c r="E41">
+        <v>-0.01249048024198866</v>
+      </c>
+      <c r="F41">
+        <v>-0.006628381905403827</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02305011011266591</v>
+        <v>0.04034980300002017</v>
       </c>
       <c r="C43">
-        <v>-0.0007694046749154763</v>
+        <v>0.006821805434545899</v>
       </c>
       <c r="D43">
-        <v>-0.006947484831256314</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01937337244542298</v>
+      </c>
+      <c r="E43">
+        <v>-0.02456460183471965</v>
+      </c>
+      <c r="F43">
+        <v>-0.01321356870525979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1109460905922387</v>
+        <v>0.08021912715425723</v>
       </c>
       <c r="C44">
-        <v>0.01834589068120819</v>
+        <v>0.01960457305648432</v>
       </c>
       <c r="D44">
-        <v>-0.04452160878896792</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09751155036159773</v>
+      </c>
+      <c r="E44">
+        <v>-0.06295609597598405</v>
+      </c>
+      <c r="F44">
+        <v>0.155153091117851</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.007011073037736047</v>
+        <v>0.02350819235367024</v>
       </c>
       <c r="C46">
-        <v>-0.002401827266290386</v>
+        <v>0.003592311064447296</v>
       </c>
       <c r="D46">
-        <v>0.002258864228590378</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01275509238009728</v>
+      </c>
+      <c r="E46">
+        <v>-0.02200782924373081</v>
+      </c>
+      <c r="F46">
+        <v>-0.006899676373003599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03944269006116757</v>
+        <v>0.05202585329046711</v>
       </c>
       <c r="C47">
-        <v>0.009555068015188326</v>
+        <v>0.003250991689432047</v>
       </c>
       <c r="D47">
-        <v>0.02770730108586762</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01383594998165916</v>
+      </c>
+      <c r="E47">
+        <v>-0.02389735756066324</v>
+      </c>
+      <c r="F47">
+        <v>-0.03256469159360812</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0504387762613236</v>
+        <v>0.04984999498644557</v>
       </c>
       <c r="C48">
-        <v>0.01485906090328748</v>
+        <v>0.002104046698951899</v>
       </c>
       <c r="D48">
-        <v>-0.03131707569936661</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05041057601236478</v>
+      </c>
+      <c r="E48">
+        <v>0.006133793287039067</v>
+      </c>
+      <c r="F48">
+        <v>0.01003597009377141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2127889435694402</v>
+        <v>0.2008022791963831</v>
       </c>
       <c r="C49">
-        <v>0.06743630783511607</v>
+        <v>0.01881971293571648</v>
       </c>
       <c r="D49">
-        <v>0.0330049718529581</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.00628469162681135</v>
+      </c>
+      <c r="E49">
+        <v>-0.03297421673797609</v>
+      </c>
+      <c r="F49">
+        <v>0.03597480226395711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04019883355387365</v>
+        <v>0.0505643854939852</v>
       </c>
       <c r="C50">
-        <v>0.002056903576204304</v>
+        <v>0.01097002495731937</v>
       </c>
       <c r="D50">
-        <v>-0.008679481095895754</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02388305268510471</v>
+      </c>
+      <c r="E50">
+        <v>-0.02936535762074851</v>
+      </c>
+      <c r="F50">
+        <v>0.009902815310424442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.0008445398017183246</v>
+        <v>0.0004160871253504127</v>
       </c>
       <c r="C51">
-        <v>0.0002605141181809035</v>
+        <v>0.0001152286794122867</v>
       </c>
       <c r="D51">
-        <v>0.0008899175644581309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.000154438793680437</v>
+      </c>
+      <c r="E51">
+        <v>-0.000176832209739127</v>
+      </c>
+      <c r="F51">
+        <v>0.000995511807189523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1566742795436251</v>
+        <v>0.1463423680528915</v>
       </c>
       <c r="C52">
-        <v>0.04769441302540273</v>
+        <v>0.01616564885629761</v>
       </c>
       <c r="D52">
-        <v>-0.03061369550221115</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04341213692368604</v>
+      </c>
+      <c r="E52">
+        <v>-0.01969869236860064</v>
+      </c>
+      <c r="F52">
+        <v>0.04301082081767511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1669537961895106</v>
+        <v>0.1712333652826282</v>
       </c>
       <c r="C53">
-        <v>0.05149755976823724</v>
+        <v>0.01916269635956538</v>
       </c>
       <c r="D53">
-        <v>-0.0009333987571443668</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00584761822648626</v>
+      </c>
+      <c r="E53">
+        <v>-0.03136520731763512</v>
+      </c>
+      <c r="F53">
+        <v>0.07335862739824582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.03027493425253652</v>
+        <v>0.02199019440773406</v>
       </c>
       <c r="C54">
-        <v>-0.0009846500984620264</v>
+        <v>0.01203946880843191</v>
       </c>
       <c r="D54">
-        <v>-0.006258032097618744</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03381075158422796</v>
+      </c>
+      <c r="E54">
+        <v>-0.01720696432152458</v>
+      </c>
+      <c r="F54">
+        <v>-0.004760203512289897</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1034340164175418</v>
+        <v>0.1139993195204359</v>
       </c>
       <c r="C55">
-        <v>0.02656510643766884</v>
+        <v>0.01677251818806171</v>
       </c>
       <c r="D55">
-        <v>0.005815934723086517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008240367863339846</v>
+      </c>
+      <c r="E55">
+        <v>-0.02706483028777059</v>
+      </c>
+      <c r="F55">
+        <v>0.04811720354855471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1646002613934272</v>
+        <v>0.1764529727166196</v>
       </c>
       <c r="C56">
-        <v>0.05274892602868637</v>
+        <v>0.01691556465762232</v>
       </c>
       <c r="D56">
-        <v>0.01313164296920404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0008081540200392541</v>
+      </c>
+      <c r="E56">
+        <v>-0.03482713777302737</v>
+      </c>
+      <c r="F56">
+        <v>0.05231378182563486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04049650260829007</v>
+        <v>0.04508788814287051</v>
       </c>
       <c r="C58">
-        <v>0.008586789113900543</v>
+        <v>-0.000349723381444164</v>
       </c>
       <c r="D58">
-        <v>-0.03677514056532932</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07075218856883601</v>
+      </c>
+      <c r="E58">
+        <v>-0.02758328740764322</v>
+      </c>
+      <c r="F58">
+        <v>-0.03661525376992697</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1143939990569126</v>
+        <v>0.1683929417154885</v>
       </c>
       <c r="C59">
-        <v>0.03727454115951206</v>
+        <v>0.02158273363065492</v>
       </c>
       <c r="D59">
-        <v>0.2280143520303515</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2187533374209423</v>
+      </c>
+      <c r="E59">
+        <v>0.04594503468129729</v>
+      </c>
+      <c r="F59">
+        <v>-0.03572208312047254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2361867613012768</v>
+        <v>0.2317290637104873</v>
       </c>
       <c r="C60">
-        <v>0.09801221674524865</v>
+        <v>-0.002885165730961156</v>
       </c>
       <c r="D60">
-        <v>-0.02265010977897536</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04311925909614264</v>
+      </c>
+      <c r="E60">
+        <v>-0.01237267452677061</v>
+      </c>
+      <c r="F60">
+        <v>-0.005091202280000589</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1159613641143656</v>
+        <v>0.08117244133543762</v>
       </c>
       <c r="C61">
-        <v>0.03085772734741375</v>
+        <v>0.01142259926020278</v>
       </c>
       <c r="D61">
-        <v>-0.06890561288119613</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1175036018677643</v>
+      </c>
+      <c r="E61">
+        <v>-0.03851521521298466</v>
+      </c>
+      <c r="F61">
+        <v>0.01144402650051598</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1638092495929217</v>
+        <v>0.1692990178616534</v>
       </c>
       <c r="C62">
-        <v>0.04885395976853947</v>
+        <v>0.02012132283666061</v>
       </c>
       <c r="D62">
-        <v>0.01098879997462775</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.00634433526564364</v>
+      </c>
+      <c r="E62">
+        <v>-0.0340198690903762</v>
+      </c>
+      <c r="F62">
+        <v>0.0344014321304952</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04671588101843548</v>
+        <v>0.04569918424866733</v>
       </c>
       <c r="C63">
-        <v>0.01304162170899882</v>
+        <v>0.001696723398371539</v>
       </c>
       <c r="D63">
-        <v>-0.03498047106808519</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05925623142994591</v>
+      </c>
+      <c r="E63">
+        <v>-0.02183208216441818</v>
+      </c>
+      <c r="F63">
+        <v>0.00429568662414519</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09626175743916458</v>
+        <v>0.1099101938974558</v>
       </c>
       <c r="C64">
-        <v>0.0222828583485273</v>
+        <v>0.01101082551769502</v>
       </c>
       <c r="D64">
-        <v>-0.004906670681172182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04395202541355856</v>
+      </c>
+      <c r="E64">
+        <v>-0.02376244193057364</v>
+      </c>
+      <c r="F64">
+        <v>0.0254511881418387</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1262616856110834</v>
+        <v>0.1481022687887574</v>
       </c>
       <c r="C65">
-        <v>0.01738217607626191</v>
+        <v>0.03282507108987121</v>
       </c>
       <c r="D65">
-        <v>0.02968559484256281</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04020347867477568</v>
+      </c>
+      <c r="E65">
+        <v>-0.005460305783180745</v>
+      </c>
+      <c r="F65">
+        <v>0.03942143405397673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1629488742876443</v>
+        <v>0.1243899267621764</v>
       </c>
       <c r="C66">
-        <v>0.04508273870248584</v>
+        <v>0.0136985440378556</v>
       </c>
       <c r="D66">
-        <v>-0.1075379036242682</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.141994541257643</v>
+      </c>
+      <c r="E66">
+        <v>-0.06487355251704315</v>
+      </c>
+      <c r="F66">
+        <v>0.03274533007464403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06209985658937894</v>
+        <v>0.05979243293433452</v>
       </c>
       <c r="C67">
-        <v>0.0196604022337219</v>
+        <v>0.003186950605674435</v>
       </c>
       <c r="D67">
-        <v>-0.01944521743893556</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05529444170222167</v>
+      </c>
+      <c r="E67">
+        <v>-0.01731609269087724</v>
+      </c>
+      <c r="F67">
+        <v>-0.03332895165566221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.0735698477045945</v>
+        <v>0.1165860939579378</v>
       </c>
       <c r="C68">
-        <v>0.01192422534619629</v>
+        <v>0.03206442960657249</v>
       </c>
       <c r="D68">
-        <v>0.2365514080135762</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2609640822995365</v>
+      </c>
+      <c r="E68">
+        <v>0.0865523960677403</v>
+      </c>
+      <c r="F68">
+        <v>0.005654274687495749</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03629208717873072</v>
+        <v>0.04008951186674831</v>
       </c>
       <c r="C69">
-        <v>0.01290514771031802</v>
+        <v>0.001315213307040779</v>
       </c>
       <c r="D69">
-        <v>0.01096249221802846</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.007257182262563129</v>
+      </c>
+      <c r="E69">
+        <v>-0.02227377800839456</v>
+      </c>
+      <c r="F69">
+        <v>0.001111830313246224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.01613409643173918</v>
+        <v>0.0662212844807552</v>
       </c>
       <c r="C70">
-        <v>0.02680251400741138</v>
+        <v>-0.0277336529629758</v>
       </c>
       <c r="D70">
-        <v>0.04584820010480692</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.02388028124533547</v>
+      </c>
+      <c r="E70">
+        <v>0.03812873699029984</v>
+      </c>
+      <c r="F70">
+        <v>-0.1820754561505485</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.09021837300506451</v>
+        <v>0.1361631211283422</v>
       </c>
       <c r="C71">
-        <v>0.01480409445654471</v>
+        <v>0.03630402922275892</v>
       </c>
       <c r="D71">
-        <v>0.2528065065568266</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2733393514528893</v>
+      </c>
+      <c r="E71">
+        <v>0.09672152571195877</v>
+      </c>
+      <c r="F71">
+        <v>0.01045636435341967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1332673645974837</v>
+        <v>0.1420720177574547</v>
       </c>
       <c r="C72">
-        <v>0.02723447907875908</v>
+        <v>0.02621365142031492</v>
       </c>
       <c r="D72">
-        <v>0.0251279429327985</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.0007509411953303724</v>
+      </c>
+      <c r="E72">
+        <v>-0.03865582071065145</v>
+      </c>
+      <c r="F72">
+        <v>0.03325426033325746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1978366821267964</v>
+        <v>0.2023314436114692</v>
       </c>
       <c r="C73">
-        <v>0.06780489757466353</v>
+        <v>0.01232147620380905</v>
       </c>
       <c r="D73">
-        <v>0.03137202326319088</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01759659805519894</v>
+      </c>
+      <c r="E73">
+        <v>-0.06452120339039777</v>
+      </c>
+      <c r="F73">
+        <v>0.03459634757784912</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1020957138894723</v>
+        <v>0.09448561477713098</v>
       </c>
       <c r="C74">
-        <v>0.02985528984328853</v>
+        <v>0.01323419974038255</v>
       </c>
       <c r="D74">
-        <v>-0.001426174380839139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0171725295647843</v>
+      </c>
+      <c r="E74">
+        <v>-0.04378503530759995</v>
+      </c>
+      <c r="F74">
+        <v>0.05876017077962354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1376611151467759</v>
+        <v>0.1274980005857608</v>
       </c>
       <c r="C75">
-        <v>0.02700922173584309</v>
+        <v>0.02804636082215797</v>
       </c>
       <c r="D75">
-        <v>0.00186037177582588</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03028959321099061</v>
+      </c>
+      <c r="E75">
+        <v>-0.05767684716204038</v>
+      </c>
+      <c r="F75">
+        <v>0.02113871421856049</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.0002414088775561132</v>
+        <v>0.0001596246066655144</v>
       </c>
       <c r="C76">
-        <v>4.31589007147265e-05</v>
+        <v>4.775549919732647e-05</v>
       </c>
       <c r="D76">
-        <v>0.000416018530855478</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0001215794545292999</v>
+      </c>
+      <c r="E76">
+        <v>-1.248082402619182e-05</v>
+      </c>
+      <c r="F76">
+        <v>-0.0002028609420969064</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08730939759799604</v>
+        <v>0.08696133871614603</v>
       </c>
       <c r="C77">
-        <v>0.01873672995610332</v>
+        <v>0.007925274055234785</v>
       </c>
       <c r="D77">
-        <v>-0.07465564080556092</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1132833762792373</v>
+      </c>
+      <c r="E77">
+        <v>-0.03853104577671798</v>
+      </c>
+      <c r="F77">
+        <v>0.03115117022682798</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1442730872360529</v>
+        <v>0.1010850298922305</v>
       </c>
       <c r="C78">
-        <v>0.008078411651948364</v>
+        <v>0.0395684394900724</v>
       </c>
       <c r="D78">
-        <v>-0.02003225160570837</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1157704214245169</v>
+      </c>
+      <c r="E78">
+        <v>-0.07422205197333728</v>
+      </c>
+      <c r="F78">
+        <v>0.04502152338094807</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1515703928734356</v>
+        <v>0.163859749188799</v>
       </c>
       <c r="C79">
-        <v>0.03817693995739334</v>
+        <v>0.02254615622578148</v>
       </c>
       <c r="D79">
-        <v>0.01431901934272979</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01418925585979352</v>
+      </c>
+      <c r="E79">
+        <v>-0.04546202635726337</v>
+      </c>
+      <c r="F79">
+        <v>0.01113675537876337</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08788349319130768</v>
+        <v>0.08288140695254843</v>
       </c>
       <c r="C80">
-        <v>0.03322124037476042</v>
+        <v>-0.001091023546189368</v>
       </c>
       <c r="D80">
-        <v>-0.02632128782118631</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05690847261634788</v>
+      </c>
+      <c r="E80">
+        <v>-0.03628279790319697</v>
+      </c>
+      <c r="F80">
+        <v>-0.02184285015537528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1285859058879533</v>
+        <v>0.1205051847801442</v>
       </c>
       <c r="C81">
-        <v>0.01920753533790774</v>
+        <v>0.03192443327829116</v>
       </c>
       <c r="D81">
-        <v>-0.005836272433226623</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01472993431220065</v>
+      </c>
+      <c r="E81">
+        <v>-0.05625305535290891</v>
+      </c>
+      <c r="F81">
+        <v>0.01833288991970876</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.163316218722675</v>
+        <v>0.1655236673123022</v>
       </c>
       <c r="C82">
-        <v>0.04349160531102957</v>
+        <v>0.02443503466049141</v>
       </c>
       <c r="D82">
-        <v>0.001914131893933622</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.00356075313480985</v>
+      </c>
+      <c r="E82">
+        <v>-0.02789988373539007</v>
+      </c>
+      <c r="F82">
+        <v>0.08179515988129399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06685283101297156</v>
+        <v>0.05981021016748087</v>
       </c>
       <c r="C83">
-        <v>0.01958486618410755</v>
+        <v>0.002798907695699686</v>
       </c>
       <c r="D83">
-        <v>-0.02258314675122983</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05070000690290561</v>
+      </c>
+      <c r="E83">
+        <v>-0.004585257745848829</v>
+      </c>
+      <c r="F83">
+        <v>-0.0300814500412684</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07666091887199135</v>
+        <v>0.0586828501558876</v>
       </c>
       <c r="C84">
-        <v>0.01520855152151017</v>
+        <v>0.01114273898269212</v>
       </c>
       <c r="D84">
-        <v>-0.04178852528245781</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.06348782663424718</v>
+      </c>
+      <c r="E84">
+        <v>-0.006174458455179506</v>
+      </c>
+      <c r="F84">
+        <v>0.004230842561821863</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1370223167143773</v>
+        <v>0.1362118430731069</v>
       </c>
       <c r="C85">
-        <v>0.02725035054020333</v>
+        <v>0.02788920926061438</v>
       </c>
       <c r="D85">
-        <v>0.007980986281739683</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009682426547644141</v>
+      </c>
+      <c r="E85">
+        <v>-0.03709603762900327</v>
+      </c>
+      <c r="F85">
+        <v>0.04658812895326098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.06708578144865554</v>
+        <v>0.09576587519021146</v>
       </c>
       <c r="C86">
-        <v>0.02397932061463425</v>
+        <v>-0.005215386573834755</v>
       </c>
       <c r="D86">
-        <v>0.09868734228256805</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03935208197566482</v>
+      </c>
+      <c r="E86">
+        <v>-0.218516884634783</v>
+      </c>
+      <c r="F86">
+        <v>-0.9085763352400216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1395261859517965</v>
+        <v>0.09668399956804953</v>
       </c>
       <c r="C87">
-        <v>0.02799743225008829</v>
+        <v>0.01991854984478944</v>
       </c>
       <c r="D87">
-        <v>-0.04571755695298823</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09425853431609665</v>
+      </c>
+      <c r="E87">
+        <v>0.05306671673096265</v>
+      </c>
+      <c r="F87">
+        <v>0.04934384829309228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05528850707271191</v>
+        <v>0.06080117844186905</v>
       </c>
       <c r="C88">
-        <v>0.01555451212118649</v>
+        <v>0.002156364306404371</v>
       </c>
       <c r="D88">
-        <v>-0.01374217489655453</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04920982755607763</v>
+      </c>
+      <c r="E88">
+        <v>-0.02387736309340352</v>
+      </c>
+      <c r="F88">
+        <v>0.01327562500152207</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.09038335095155363</v>
+        <v>0.1328950571551305</v>
       </c>
       <c r="C89">
-        <v>0.03954210255274149</v>
+        <v>0.01325195297832553</v>
       </c>
       <c r="D89">
-        <v>0.2639333853225042</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2481755525757564</v>
+      </c>
+      <c r="E89">
+        <v>0.0901513124417327</v>
+      </c>
+      <c r="F89">
+        <v>-0.008817524693136175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.09500165389921211</v>
+        <v>0.1507854094316017</v>
       </c>
       <c r="C90">
-        <v>0.01945034531411199</v>
+        <v>0.0327231731135675</v>
       </c>
       <c r="D90">
-        <v>0.2499839534557805</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2700922737374917</v>
+      </c>
+      <c r="E90">
+        <v>0.1125238226052189</v>
+      </c>
+      <c r="F90">
+        <v>-0.003677424382097406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1072853254127574</v>
+        <v>0.1204019548815721</v>
       </c>
       <c r="C91">
-        <v>0.02710564946423363</v>
+        <v>0.01919606787855203</v>
       </c>
       <c r="D91">
-        <v>0.02971726748593424</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01422705984192199</v>
+      </c>
+      <c r="E91">
+        <v>-0.05609941716048483</v>
+      </c>
+      <c r="F91">
+        <v>-0.0007003381969467959</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.09109891571877599</v>
+        <v>0.1480351143458904</v>
       </c>
       <c r="C92">
-        <v>0.03360626126507273</v>
+        <v>0.0240859545569896</v>
       </c>
       <c r="D92">
-        <v>0.2617444339322218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2924190775741779</v>
+      </c>
+      <c r="E92">
+        <v>0.1017802421065156</v>
+      </c>
+      <c r="F92">
+        <v>-0.0127261206627457</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1001857731634361</v>
+        <v>0.1520750505738299</v>
       </c>
       <c r="C93">
-        <v>0.02654024496596937</v>
+        <v>0.02837575246750374</v>
       </c>
       <c r="D93">
-        <v>0.264350299384457</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2690496144522918</v>
+      </c>
+      <c r="E93">
+        <v>0.07798412097808687</v>
+      </c>
+      <c r="F93">
+        <v>0.003114113561550084</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.145765788818247</v>
+        <v>0.1296402383165021</v>
       </c>
       <c r="C94">
-        <v>0.03429745674880613</v>
+        <v>0.02464736507088025</v>
       </c>
       <c r="D94">
-        <v>-0.01351669264851418</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04290621750838685</v>
+      </c>
+      <c r="E94">
+        <v>-0.05712731085071145</v>
+      </c>
+      <c r="F94">
+        <v>0.03775486627554712</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1241407025995342</v>
+        <v>0.1271228085139064</v>
       </c>
       <c r="C95">
-        <v>0.03926611595052037</v>
+        <v>0.003386566756186003</v>
       </c>
       <c r="D95">
-        <v>-0.04690040914518752</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09303879448355684</v>
+      </c>
+      <c r="E95">
+        <v>-0.04677254541175394</v>
+      </c>
+      <c r="F95">
+        <v>-0.007732026341546549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.2765305383303648</v>
+        <v>0.1069390328528678</v>
       </c>
       <c r="C96">
-        <v>0.9561418943503127</v>
+        <v>-0.9873807398075779</v>
       </c>
       <c r="D96">
-        <v>0.01936970892524554</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04920639891360065</v>
+      </c>
+      <c r="E96">
+        <v>-0.05488633178333899</v>
+      </c>
+      <c r="F96">
+        <v>0.04165374750239737</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.160677480036756</v>
+        <v>0.1927021827244471</v>
       </c>
       <c r="C97">
-        <v>0.07220272525659115</v>
+        <v>-0.007363436921199988</v>
       </c>
       <c r="D97">
-        <v>0.07845025118066169</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.01635043971800255</v>
+      </c>
+      <c r="E97">
+        <v>-0.01971758530907302</v>
+      </c>
+      <c r="F97">
+        <v>-0.08292900677465749</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.185817546494759</v>
+        <v>0.2052425235993041</v>
       </c>
       <c r="C98">
-        <v>0.06886236135144057</v>
+        <v>0.006982747015355547</v>
       </c>
       <c r="D98">
-        <v>0.0008697932106049921</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01306465875431837</v>
+      </c>
+      <c r="E98">
+        <v>0.08287757215581634</v>
+      </c>
+      <c r="F98">
+        <v>-0.09173254239373253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05158938899731517</v>
+        <v>0.05525154642464657</v>
       </c>
       <c r="C99">
-        <v>0.02367961452328506</v>
+        <v>-0.004665389436205954</v>
       </c>
       <c r="D99">
-        <v>-0.009161459352979594</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.03902333806613546</v>
+      </c>
+      <c r="E99">
+        <v>-0.0224073257097905</v>
+      </c>
+      <c r="F99">
+        <v>0.001326649487970398</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1342211896482758</v>
+        <v>0.1255745978559082</v>
       </c>
       <c r="C100">
-        <v>0.08386692165363968</v>
+        <v>-0.05460292953660207</v>
       </c>
       <c r="D100">
-        <v>-0.5886798784617561</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3431351075527898</v>
+      </c>
+      <c r="E100">
+        <v>0.8884683832849429</v>
+      </c>
+      <c r="F100">
+        <v>-0.1480951512775759</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02584644059794423</v>
+        <v>0.02784563096380107</v>
       </c>
       <c r="C101">
-        <v>-0.0009683942230301773</v>
+        <v>0.008427971072099529</v>
       </c>
       <c r="D101">
-        <v>-0.006274035226501908</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03048504653581832</v>
+      </c>
+      <c r="E101">
+        <v>-0.009842148415936332</v>
+      </c>
+      <c r="F101">
+        <v>-0.0134074485573499</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
